--- a/biology/Microbiologie/Harosa/Harosa.xlsx
+++ b/biology/Microbiologie/Harosa/Harosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Groupe SAR
-Harosa, ou groupe SAR, est un sous-règne d'eucaryotes constitué des Heterokonta (ex-stramenopiles), alvéolés et rhizaires[1],[2],[3],[4]. La première lettre du nom de chaque groupe explique l'origine du nom SAR. Il regroupe les rhizaires avec la plus grande partie des anciens Chromalveolata. Harosa admet pour groupe frère les Hacrobia au sein du règne des Chromista. Les Hacrobia rassemblent les Cryptophyta et les Haptophyta.
+Harosa, ou groupe SAR, est un sous-règne d'eucaryotes constitué des Heterokonta (ex-stramenopiles), alvéolés et rhizaires. La première lettre du nom de chaque groupe explique l'origine du nom SAR. Il regroupe les rhizaires avec la plus grande partie des anciens Chromalveolata. Harosa admet pour groupe frère les Hacrobia au sein du règne des Chromista. Les Hacrobia rassemblent les Cryptophyta et les Haptophyta.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2009, Thomas Cavalier-Smith a proposé le terme Harosa pour désigner ce groupe[5], formé avec le préfixe har-, première lettre des trois groupes, Heterokonta (qui remplace Stramenopiles), Alveolata et Rhizaria, suivi du suffixe -osa, sans signification particulière.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2009, Thomas Cavalier-Smith a proposé le terme Harosa pour désigner ce groupe, formé avec le préfixe har-, première lettre des trois groupes, Heterokonta (qui remplace Stramenopiles), Alveolata et Rhizaria, suivi du suffixe -osa, sans signification particulière.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des infra-règnes et embranchements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (31 décembre 2021)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (31 décembre 2021) :
 infra-règne des Alveolata T.Cavalier-Smith
 embranchement des Ciliophora
 embranchement des Myzozoa
